--- a/trunk/docs/NodeXLGraph1.xlsx
+++ b/trunk/docs/NodeXLGraph1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1680" windowWidth="22170" windowHeight="7875" activeTab="1"/>
+    <workbookView xWindow="90" yWindow="1680" windowWidth="22170" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Edges" sheetId="1" r:id="rId1"/>
@@ -3827,9 +3827,6 @@
   </si>
   <si>
     <t>Vertices[Y]</t>
-  </si>
-  <si>
-    <t>LayoutAlgorithm░The graph was laid out using the Harel-Koren Fast Multiscale layout algorithm.▓GraphDirectedness░The graph is undirected.</t>
   </si>
   <si>
     <t>RED</t>
@@ -3884,11 +3881,14 @@
     &lt;/VertexGridSnapperUserSettings&gt;_x000D_
     &lt;LayoutUserSettings&gt;_x000D_
       &lt;setting name="Layout" serializeAs="String"&gt;_x000D_
-        &lt;value&gt;HarelKorenFastMultiscale&lt;/value&gt;_x000D_
+        &lt;value&gt;FruchtermanReingold&lt;/value&gt;_x000D_
       &lt;/setting&gt;_x000D_
     &lt;/LayoutUserSettings&gt;_x000D_
   &lt;/userSettings&gt;_x000D_
 &lt;/configuration&gt;</t>
+  </si>
+  <si>
+    <t>LayoutAlgorithm░The graph was laid out using the Fruchterman-Reingold layout algorithm.▓GraphDirectedness░The graph is undirected.</t>
   </si>
 </sst>
 </file>
@@ -4329,10 +4329,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="97">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -5332,6 +5328,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5760,11 +5760,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923027952"/>
-        <c:axId val="1923017072"/>
+        <c:axId val="-1408974208"/>
+        <c:axId val="-1667590432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923027952"/>
+        <c:axId val="-1408974208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +5800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923017072"/>
+        <c:crossAx val="-1667590432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5808,7 +5808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923017072"/>
+        <c:axId val="-1667590432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,14 +5831,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923027952"/>
+        <c:crossAx val="-1408974208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6188,11 +6187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923013264"/>
-        <c:axId val="1923030128"/>
+        <c:axId val="-1667589344"/>
+        <c:axId val="-1667591520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923013264"/>
+        <c:axId val="-1667589344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6228,7 +6227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923030128"/>
+        <c:crossAx val="-1667591520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6236,7 +6235,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923030128"/>
+        <c:axId val="-1667591520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6259,14 +6258,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923013264"/>
+        <c:crossAx val="-1667589344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6616,11 +6614,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923043184"/>
-        <c:axId val="1923044272"/>
+        <c:axId val="-1667588256"/>
+        <c:axId val="-1667587168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923043184"/>
+        <c:axId val="-1667588256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6656,7 +6654,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923044272"/>
+        <c:crossAx val="-1667587168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6664,7 +6662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923044272"/>
+        <c:axId val="-1667587168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,14 +6685,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923043184"/>
+        <c:crossAx val="-1667588256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7044,11 +7041,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923043728"/>
-        <c:axId val="1923039920"/>
+        <c:axId val="-1667584992"/>
+        <c:axId val="-1667586624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923043728"/>
+        <c:axId val="-1667584992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7084,7 +7081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923039920"/>
+        <c:crossAx val="-1667586624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7092,7 +7089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923039920"/>
+        <c:axId val="-1667586624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7115,14 +7112,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923043728"/>
+        <c:crossAx val="-1667584992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7472,11 +7468,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923042640"/>
-        <c:axId val="1923050800"/>
+        <c:axId val="-1673355056"/>
+        <c:axId val="-1673361584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923042640"/>
+        <c:axId val="-1673355056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7512,7 +7508,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923050800"/>
+        <c:crossAx val="-1673361584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7520,7 +7516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923050800"/>
+        <c:axId val="-1673361584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7543,14 +7539,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923042640"/>
+        <c:crossAx val="-1673355056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7900,11 +7895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923039376"/>
-        <c:axId val="1923041552"/>
+        <c:axId val="-1673359408"/>
+        <c:axId val="-1673357776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923039376"/>
+        <c:axId val="-1673359408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7948,7 +7943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923041552"/>
+        <c:crossAx val="-1673357776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7956,7 +7951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923041552"/>
+        <c:axId val="-1673357776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7979,14 +7974,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923039376"/>
+        <c:crossAx val="-1673359408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8336,11 +8330,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923046448"/>
-        <c:axId val="1923048080"/>
+        <c:axId val="-1673357232"/>
+        <c:axId val="-1673356688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923046448"/>
+        <c:axId val="-1673357232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8376,7 +8370,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923048080"/>
+        <c:crossAx val="-1673356688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8384,7 +8378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923048080"/>
+        <c:axId val="-1673356688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8407,14 +8401,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923046448"/>
+        <c:crossAx val="-1673357232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8764,11 +8757,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923049712"/>
-        <c:axId val="1923038288"/>
+        <c:axId val="-1673360496"/>
+        <c:axId val="-1673416496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923049712"/>
+        <c:axId val="-1673360496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8804,7 +8797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923038288"/>
+        <c:crossAx val="-1673416496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8812,7 +8805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923038288"/>
+        <c:axId val="-1673416496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8835,14 +8828,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1923049712"/>
+        <c:crossAx val="-1673360496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8899,7 +8891,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9058,43 +9050,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -9103,7 +9095,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -9112,34 +9104,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -9151,7 +9143,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>1</c:v>
@@ -9163,7 +9155,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1</c:v>
@@ -9175,19 +9167,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="42">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9202,11 +9194,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="0"/>
-        <c:axId val="1923051344"/>
-        <c:axId val="1923051888"/>
+        <c:axId val="-1673418672"/>
+        <c:axId val="-1673417040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1923051344"/>
+        <c:axId val="-1673418672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9216,7 +9208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923051888"/>
+        <c:crossAx val="-1673417040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9224,7 +9216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1923051888"/>
+        <c:axId val="-1673417040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9234,7 +9226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="1923051344"/>
+        <c:crossAx val="-1673418672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9550,6 +9542,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Edges" displayName="Edges" ref="A2:N54" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A2:N54"/>
+  <sortState ref="A3:N54">
+    <sortCondition ref="B2:B54"/>
+  </sortState>
   <tableColumns count="14">
     <tableColumn id="1" name="Vertex 1" dataDxfId="93" dataCellStyle="NodeXL Required"/>
     <tableColumn id="2" name="Vertex 2" dataDxfId="92" dataCellStyle="NodeXL Required"/>
@@ -9558,22 +9553,22 @@
     <tableColumn id="11" name="Style" dataDxfId="89" dataCellStyle="NodeXL Visual Property"/>
     <tableColumn id="5" name="Opacity" dataDxfId="88" dataCellStyle="NodeXL Visual Property"/>
     <tableColumn id="6" name="Visibility" dataDxfId="87" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="10" name="Label" dataDxfId="0" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="12" name="Label Text Color" dataDxfId="86" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="13" name="Label Font Size" dataDxfId="85" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="14" name="Reciprocated?" dataDxfId="84" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="7" name="ID" dataDxfId="83" dataCellStyle="NodeXL Do Not Edit"/>
-    <tableColumn id="9" name="Dynamic Filter" dataDxfId="82" dataCellStyle="NodeXL Do Not Edit">
+    <tableColumn id="10" name="Label" dataDxfId="86" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="12" name="Label Text Color" dataDxfId="85" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="13" name="Label Font Size" dataDxfId="84" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="14" name="Reciprocated?" dataDxfId="83" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="7" name="ID" dataDxfId="82" dataCellStyle="NodeXL Do Not Edit"/>
+    <tableColumn id="9" name="Dynamic Filter" dataDxfId="81" dataCellStyle="NodeXL Do Not Edit">
       <calculatedColumnFormula xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Add Your Own Columns Here" dataDxfId="81" dataCellStyle="NodeXL Other Column"/>
+    <tableColumn id="8" name="Add Your Own Columns Here" dataDxfId="80" dataCellStyle="NodeXL Other Column"/>
   </tableColumns>
   <tableStyleInfo name="NodeXL Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="DynamicFilterSettings" displayName="DynamicFilterSettings" ref="M1:P3" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="DynamicFilterSettings" displayName="DynamicFilterSettings" ref="M1:P3" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="M1:P3"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Table Name"/>
@@ -9586,85 +9581,85 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Vertices" displayName="Vertices" ref="A2:AC34" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Vertices" displayName="Vertices" ref="A2:AC34" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A2:AC34"/>
   <tableColumns count="29">
-    <tableColumn id="1" name="Vertex" dataDxfId="78" dataCellStyle="NodeXL Required"/>
-    <tableColumn id="2" name="Color" dataDxfId="77" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="5" name="Shape" dataDxfId="76" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="6" name="Size" dataDxfId="75" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="4" name="Opacity" dataDxfId="74" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="7" name="Image File" dataDxfId="73" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="3" name="Visibility" dataDxfId="72" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="10" name="Label" dataDxfId="71" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="16" name="Label Fill Color" dataDxfId="70" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="9" name="Label Position" dataDxfId="69" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="8" name="Tooltip" dataDxfId="68" dataCellStyle="NodeXL Label"/>
-    <tableColumn id="18" name="Layout Order" dataDxfId="67" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="13" name="X" dataDxfId="66" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="14" name="Y" dataDxfId="65" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="12" name="Locked?" dataDxfId="64" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="19" name="Polar R" dataDxfId="63" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="20" name="Polar Angle" dataDxfId="62" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="21" name="Degree" dataDxfId="61" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="22" name="In-Degree" dataDxfId="60" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="23" name="Out-Degree" dataDxfId="59" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="24" name="Betweenness Centrality" dataDxfId="58" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="25" name="Closeness Centrality" dataDxfId="57" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="26" name="Eigenvector Centrality" dataDxfId="56" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="15" name="PageRank" dataDxfId="55" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="27" name="Clustering Coefficient" dataDxfId="54" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="29" name="Reciprocated Vertex Pair Ratio" dataDxfId="53" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="11" name="ID" dataDxfId="52" dataCellStyle="NodeXL Do Not Edit"/>
-    <tableColumn id="28" name="Dynamic Filter" dataDxfId="51" dataCellStyle="NodeXL Do Not Edit">
+    <tableColumn id="1" name="Vertex" dataDxfId="77" dataCellStyle="NodeXL Required"/>
+    <tableColumn id="2" name="Color" dataDxfId="76" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="5" name="Shape" dataDxfId="75" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="6" name="Size" dataDxfId="74" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="4" name="Opacity" dataDxfId="73" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="7" name="Image File" dataDxfId="72" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="3" name="Visibility" dataDxfId="71" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="10" name="Label" dataDxfId="70" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="16" name="Label Fill Color" dataDxfId="69" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="9" name="Label Position" dataDxfId="68" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="8" name="Tooltip" dataDxfId="67" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="18" name="Layout Order" dataDxfId="66" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="13" name="X" dataDxfId="65" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="14" name="Y" dataDxfId="64" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="12" name="Locked?" dataDxfId="63" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="19" name="Polar R" dataDxfId="62" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="20" name="Polar Angle" dataDxfId="61" dataCellStyle="NodeXL Layout"/>
+    <tableColumn id="21" name="Degree" dataDxfId="60" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="22" name="In-Degree" dataDxfId="59" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="23" name="Out-Degree" dataDxfId="58" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="24" name="Betweenness Centrality" dataDxfId="57" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="25" name="Closeness Centrality" dataDxfId="56" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="26" name="Eigenvector Centrality" dataDxfId="55" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="15" name="PageRank" dataDxfId="54" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="27" name="Clustering Coefficient" dataDxfId="53" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="29" name="Reciprocated Vertex Pair Ratio" dataDxfId="52" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="11" name="ID" dataDxfId="51" dataCellStyle="NodeXL Do Not Edit"/>
+    <tableColumn id="28" name="Dynamic Filter" dataDxfId="50" dataCellStyle="NodeXL Do Not Edit">
       <calculatedColumnFormula xml:space="preserve"> IF(AND(OR(NOT(ISNUMBER(Vertices[X])), Vertices[X] &gt;= Misc!$O$2), OR(NOT(ISNUMBER(Vertices[X])), Vertices[X] &lt;= Misc!$P$2),OR(NOT(ISNUMBER(Vertices[Y])), Vertices[Y] &gt;= Misc!$O$3), OR(NOT(ISNUMBER(Vertices[Y])), Vertices[Y] &lt;= Misc!$P$3),TRUE), TRUE, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Add Your Own Columns Here" dataDxfId="50" dataCellStyle="NodeXL Other Column"/>
+    <tableColumn id="17" name="Add Your Own Columns Here" dataDxfId="49" dataCellStyle="NodeXL Other Column"/>
   </tableColumns>
   <tableStyleInfo name="NodeXL Table" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Groups" displayName="Groups" ref="A2:X3" insertRow="1" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Groups" displayName="Groups" ref="A2:X3" insertRow="1" totalsRowShown="0" headerRowDxfId="48">
   <autoFilter ref="A2:X3"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Group" dataDxfId="48" dataCellStyle="NodeXL Required"/>
-    <tableColumn id="2" name="Vertex Color" dataDxfId="47" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="3" name="Vertex Shape" dataDxfId="46" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="22" name="Visibility" dataDxfId="45" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="1" name="Group" dataDxfId="47" dataCellStyle="NodeXL Required"/>
+    <tableColumn id="2" name="Vertex Color" dataDxfId="46" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="3" name="Vertex Shape" dataDxfId="45" dataCellStyle="NodeXL Visual Property"/>
+    <tableColumn id="22" name="Visibility" dataDxfId="44" dataCellStyle="NodeXL Visual Property"/>
     <tableColumn id="4" name="Collapsed?" dataCellStyle="NodeXL Visual Property"/>
-    <tableColumn id="18" name="Label" dataDxfId="44" dataCellStyle="NodeXL Label"/>
+    <tableColumn id="18" name="Label" dataDxfId="43" dataCellStyle="NodeXL Label"/>
     <tableColumn id="20" name="Collapsed X" dataCellStyle="NodeXL Layout"/>
     <tableColumn id="21" name="Collapsed Y" dataCellStyle="NodeXL Layout"/>
-    <tableColumn id="6" name="ID" dataDxfId="43" dataCellStyle="NodeXL Do Not Edit"/>
-    <tableColumn id="19" name="Collapsed Properties" dataDxfId="42" dataCellStyle="NodeXL Do Not Edit"/>
-    <tableColumn id="5" name="Vertices" dataDxfId="41" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="7" name="Unique Edges" dataDxfId="40" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="8" name="Edges With Duplicates" dataDxfId="39" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="9" name="Total Edges" dataDxfId="38" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="10" name="Self-Loops" dataDxfId="37" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="24" name="Reciprocated Vertex Pair Ratio" dataDxfId="36" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="25" name="Reciprocated Edge Ratio" dataDxfId="35" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="11" name="Connected Components" dataDxfId="34" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="12" name="Single-Vertex Connected Components" dataDxfId="33" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="13" name="Maximum Vertices in a Connected Component" dataDxfId="32" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="14" name="Maximum Edges in a Connected Component" dataDxfId="31" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="15" name="Maximum Geodesic Distance (Diameter)" dataDxfId="30" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="16" name="Average Geodesic Distance" dataDxfId="29" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="17" name="Graph Density" dataDxfId="28" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="6" name="ID" dataDxfId="42" dataCellStyle="NodeXL Do Not Edit"/>
+    <tableColumn id="19" name="Collapsed Properties" dataDxfId="41" dataCellStyle="NodeXL Do Not Edit"/>
+    <tableColumn id="5" name="Vertices" dataDxfId="40" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="7" name="Unique Edges" dataDxfId="39" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="8" name="Edges With Duplicates" dataDxfId="38" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="9" name="Total Edges" dataDxfId="37" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="10" name="Self-Loops" dataDxfId="36" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="24" name="Reciprocated Vertex Pair Ratio" dataDxfId="35" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="25" name="Reciprocated Edge Ratio" dataDxfId="34" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="11" name="Connected Components" dataDxfId="33" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="12" name="Single-Vertex Connected Components" dataDxfId="32" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="13" name="Maximum Vertices in a Connected Component" dataDxfId="31" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="14" name="Maximum Edges in a Connected Component" dataDxfId="30" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="15" name="Maximum Geodesic Distance (Diameter)" dataDxfId="29" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="16" name="Average Geodesic Distance" dataDxfId="28" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="17" name="Graph Density" dataDxfId="27" dataCellStyle="NodeXL Graph Metric"/>
   </tableColumns>
   <tableStyleInfo name="NodeXL Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GroupVertices" displayName="GroupVertices" ref="A1:C3" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="GroupVertices" displayName="GroupVertices" ref="A1:C3" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:C3"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Group" dataDxfId="25"/>
-    <tableColumn id="2" name="Vertex" dataDxfId="24"/>
-    <tableColumn id="3" name="Vertex ID" dataDxfId="23"/>
+    <tableColumn id="1" name="Group" dataDxfId="24"/>
+    <tableColumn id="2" name="Vertex" dataDxfId="23"/>
+    <tableColumn id="3" name="Vertex ID" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9674,8 +9669,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="OverallMetrics" displayName="OverallMetrics" ref="A1:B26" totalsRowShown="0" dataCellStyle="NodeXL Graph Metric">
   <autoFilter ref="A1:B26"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Graph Metric" dataDxfId="22" dataCellStyle="NodeXL Graph Metric"/>
-    <tableColumn id="2" name="Value" dataDxfId="21" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="1" name="Graph Metric" dataDxfId="21" dataCellStyle="NodeXL Graph Metric"/>
+    <tableColumn id="2" name="Value" dataDxfId="20" dataCellStyle="NodeXL Graph Metric"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9685,40 +9680,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="HistogramBins" displayName="HistogramBins" ref="D1:U45" totalsRowShown="0">
   <autoFilter ref="D1:U45"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="Degree Bin" dataDxfId="20"/>
-    <tableColumn id="2" name="Degree Frequency" dataDxfId="19">
+    <tableColumn id="1" name="Degree Bin" dataDxfId="19"/>
+    <tableColumn id="2" name="Degree Frequency" dataDxfId="18">
       <calculatedColumnFormula>COUNTIF(Vertices[Degree], "&gt;= " &amp; D2) - COUNTIF(Vertices[Degree], "&gt;=" &amp; D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="In-Degree Bin" dataDxfId="18"/>
-    <tableColumn id="4" name="In-Degree Frequency" dataDxfId="17">
+    <tableColumn id="3" name="In-Degree Bin" dataDxfId="17"/>
+    <tableColumn id="4" name="In-Degree Frequency" dataDxfId="16">
       <calculatedColumnFormula>COUNTIF(Vertices[In-Degree], "&gt;= " &amp; F2) - COUNTIF(Vertices[In-Degree], "&gt;=" &amp; F3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Out-Degree Bin" dataDxfId="16"/>
-    <tableColumn id="6" name="Out-Degree Frequency" dataDxfId="15">
+    <tableColumn id="5" name="Out-Degree Bin" dataDxfId="15"/>
+    <tableColumn id="6" name="Out-Degree Frequency" dataDxfId="14">
       <calculatedColumnFormula>COUNTIF(Vertices[Out-Degree], "&gt;= " &amp; H2) - COUNTIF(Vertices[Out-Degree], "&gt;=" &amp; H3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Betweenness Centrality Bin" dataDxfId="14"/>
-    <tableColumn id="8" name="Betweenness Centrality Frequency" dataDxfId="13">
+    <tableColumn id="7" name="Betweenness Centrality Bin" dataDxfId="13"/>
+    <tableColumn id="8" name="Betweenness Centrality Frequency" dataDxfId="12">
       <calculatedColumnFormula>COUNTIF(Vertices[Betweenness Centrality], "&gt;= " &amp; J2) - COUNTIF(Vertices[Betweenness Centrality], "&gt;=" &amp; J3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Closeness Centrality Bin" dataDxfId="12"/>
-    <tableColumn id="10" name="Closeness Centrality Frequency" dataDxfId="11">
+    <tableColumn id="9" name="Closeness Centrality Bin" dataDxfId="11"/>
+    <tableColumn id="10" name="Closeness Centrality Frequency" dataDxfId="10">
       <calculatedColumnFormula>COUNTIF(Vertices[Closeness Centrality], "&gt;= " &amp; L2) - COUNTIF(Vertices[Closeness Centrality], "&gt;=" &amp; L3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Eigenvector Centrality Bin" dataDxfId="10"/>
-    <tableColumn id="12" name="Eigenvector Centrality Frequency" dataDxfId="9">
+    <tableColumn id="11" name="Eigenvector Centrality Bin" dataDxfId="9"/>
+    <tableColumn id="12" name="Eigenvector Centrality Frequency" dataDxfId="8">
       <calculatedColumnFormula>COUNTIF(Vertices[Eigenvector Centrality], "&gt;= " &amp; N2) - COUNTIF(Vertices[Eigenvector Centrality], "&gt;=" &amp; N3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="PageRank Bin" dataDxfId="8"/>
-    <tableColumn id="17" name="PageRank Frequency" dataDxfId="7">
+    <tableColumn id="18" name="PageRank Bin" dataDxfId="7"/>
+    <tableColumn id="17" name="PageRank Frequency" dataDxfId="6">
       <calculatedColumnFormula>COUNTIF(Vertices[Eigenvector Centrality], "&gt;= " &amp; P2) - COUNTIF(Vertices[Eigenvector Centrality], "&gt;=" &amp; P3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="Clustering Coefficient Bin" dataDxfId="6"/>
-    <tableColumn id="14" name="Clustering Coefficient Frequency" dataDxfId="5">
+    <tableColumn id="13" name="Clustering Coefficient Bin" dataDxfId="5"/>
+    <tableColumn id="14" name="Clustering Coefficient Frequency" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(Vertices[Clustering Coefficient], "&gt;= " &amp; R2) - COUNTIF(Vertices[Clustering Coefficient], "&gt;=" &amp; R3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="Dynamic Filter Bin" dataDxfId="4"/>
-    <tableColumn id="16" name="Dynamic Filter Frequency" dataDxfId="3">
+    <tableColumn id="15" name="Dynamic Filter Bin" dataDxfId="3"/>
+    <tableColumn id="16" name="Dynamic Filter Frequency" dataDxfId="2">
       <calculatedColumnFormula>COUNTIF(Vertices[Clustering Coefficient], "&gt;= " &amp; T2) - COUNTIF(Vertices[Clustering Coefficient], "&gt;=" &amp; T3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9749,7 +9744,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PerWorkbookSettings" displayName="PerWorkbookSettings" ref="J1:K7" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="PerWorkbookSettings" displayName="PerWorkbookSettings" ref="J1:K7" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="J1:K7"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Per-Workbook Setting"/>
@@ -10049,11 +10044,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:N2"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:N7 A15:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10143,10 +10138,10 @@
     </row>
     <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="55"/>
@@ -10154,23 +10149,23 @@
       <c r="F3" s="56"/>
       <c r="G3" s="54"/>
       <c r="H3" s="58">
-        <v>148</v>
+        <v>84</v>
       </c>
       <c r="I3" s="57"/>
       <c r="J3" s="57"/>
       <c r="K3" s="68"/>
       <c r="L3" s="63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M3" s="63" t="b">
-        <f t="shared" ref="M3:M34" si="0" xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N3" s="64"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10181,26 +10176,26 @@
       <c r="F4" s="56"/>
       <c r="G4" s="54"/>
       <c r="H4" s="58">
-        <v>84</v>
+        <v>113.25</v>
       </c>
       <c r="I4" s="57"/>
       <c r="J4" s="57"/>
       <c r="K4" s="68"/>
       <c r="L4" s="63">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="M4" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N4" s="64"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="55"/>
@@ -10208,26 +10203,26 @@
       <c r="F5" s="56"/>
       <c r="G5" s="54"/>
       <c r="H5" s="58">
-        <v>67</v>
+        <v>10.09</v>
       </c>
       <c r="I5" s="57"/>
       <c r="J5" s="57"/>
       <c r="K5" s="68"/>
       <c r="L5" s="63">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M5" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="55"/>
@@ -10235,26 +10230,26 @@
       <c r="F6" s="56"/>
       <c r="G6" s="54"/>
       <c r="H6" s="58">
-        <v>30.75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
       <c r="K6" s="68"/>
       <c r="L6" s="63">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="M6" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="54"/>
       <c r="D7" s="55"/>
@@ -10262,16 +10257,16 @@
       <c r="F7" s="56"/>
       <c r="G7" s="54"/>
       <c r="H7" s="58">
-        <v>144.29</v>
+        <v>19.75</v>
       </c>
       <c r="I7" s="57"/>
       <c r="J7" s="57"/>
       <c r="K7" s="68"/>
       <c r="L7" s="63">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="M7" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N7" s="64"/>
@@ -10281,7 +10276,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C8" s="54"/>
       <c r="D8" s="55"/>
@@ -10289,26 +10284,26 @@
       <c r="F8" s="56"/>
       <c r="G8" s="54"/>
       <c r="H8" s="58">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
       <c r="K8" s="68"/>
       <c r="L8" s="63">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M8" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N8" s="64"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="55"/>
@@ -10316,26 +10311,26 @@
       <c r="F9" s="56"/>
       <c r="G9" s="54"/>
       <c r="H9" s="58">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="I9" s="57"/>
       <c r="J9" s="57"/>
       <c r="K9" s="68"/>
       <c r="L9" s="63">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="M9" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N9" s="64"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
         <v>5</v>
-      </c>
-      <c r="B10">
-        <v>20</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55"/>
@@ -10343,26 +10338,26 @@
       <c r="F10" s="56"/>
       <c r="G10" s="54"/>
       <c r="H10" s="58">
-        <v>14.4</v>
+        <v>17.45</v>
       </c>
       <c r="I10" s="57"/>
       <c r="J10" s="57"/>
       <c r="K10" s="68"/>
       <c r="L10" s="63">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M10" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="55"/>
@@ -10370,26 +10365,26 @@
       <c r="F11" s="56"/>
       <c r="G11" s="54"/>
       <c r="H11" s="58">
-        <v>14.4</v>
+        <v>7.18</v>
       </c>
       <c r="I11" s="57"/>
       <c r="J11" s="57"/>
       <c r="K11" s="68"/>
       <c r="L11" s="63">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M11" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N11" s="64"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="55"/>
@@ -10397,16 +10392,16 @@
       <c r="F12" s="56"/>
       <c r="G12" s="54"/>
       <c r="H12" s="58">
-        <v>10.1</v>
+        <v>26.78</v>
       </c>
       <c r="I12" s="57"/>
       <c r="J12" s="57"/>
       <c r="K12" s="68"/>
       <c r="L12" s="63">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="M12" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N12" s="64"/>
@@ -10416,7 +10411,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="55"/>
@@ -10424,26 +10419,26 @@
       <c r="F13" s="56"/>
       <c r="G13" s="54"/>
       <c r="H13" s="58">
-        <v>60.5</v>
+        <v>30.75</v>
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="57"/>
       <c r="K13" s="68"/>
       <c r="L13" s="63">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M13" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N13" s="64"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="55"/>
@@ -10451,26 +10446,26 @@
       <c r="F14" s="56"/>
       <c r="G14" s="54"/>
       <c r="H14" s="58">
-        <v>80</v>
+        <v>57.25</v>
       </c>
       <c r="I14" s="57"/>
       <c r="J14" s="57"/>
       <c r="K14" s="68"/>
       <c r="L14" s="63">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M14" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N14" s="64"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C15" s="54"/>
       <c r="D15" s="55"/>
@@ -10478,16 +10473,16 @@
       <c r="F15" s="56"/>
       <c r="G15" s="54"/>
       <c r="H15" s="58">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="I15" s="57"/>
       <c r="J15" s="57"/>
       <c r="K15" s="68"/>
       <c r="L15" s="63">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M15" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N15" s="64"/>
@@ -10497,7 +10492,7 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="55"/>
@@ -10505,26 +10500,26 @@
       <c r="F16" s="56"/>
       <c r="G16" s="54"/>
       <c r="H16" s="58">
-        <v>46</v>
+        <v>144.29</v>
       </c>
       <c r="I16" s="57"/>
       <c r="J16" s="57"/>
       <c r="K16" s="68"/>
       <c r="L16" s="63">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="M16" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N16" s="64"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C17" s="54"/>
       <c r="D17" s="55"/>
@@ -10532,23 +10527,23 @@
       <c r="F17" s="56"/>
       <c r="G17" s="54"/>
       <c r="H17" s="58">
-        <v>22.75</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="I17" s="57"/>
       <c r="J17" s="57"/>
       <c r="K17" s="68"/>
       <c r="L17" s="63">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M17" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N17" s="64"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>8</v>
@@ -10559,26 +10554,26 @@
       <c r="F18" s="56"/>
       <c r="G18" s="54"/>
       <c r="H18" s="58">
-        <v>129.19999999999999</v>
+        <v>124.92</v>
       </c>
       <c r="I18" s="57"/>
       <c r="J18" s="57"/>
       <c r="K18" s="68"/>
       <c r="L18" s="63">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M18" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N18" s="64"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="55"/>
@@ -10586,26 +10581,26 @@
       <c r="F19" s="56"/>
       <c r="G19" s="54"/>
       <c r="H19" s="58">
-        <v>10.09</v>
+        <v>110</v>
       </c>
       <c r="I19" s="57"/>
       <c r="J19" s="57"/>
       <c r="K19" s="68"/>
       <c r="L19" s="63">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M19" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N19" s="64"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C20" s="54"/>
       <c r="D20" s="55"/>
@@ -10613,26 +10608,26 @@
       <c r="F20" s="56"/>
       <c r="G20" s="54"/>
       <c r="H20" s="58">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I20" s="57"/>
       <c r="J20" s="57"/>
       <c r="K20" s="68"/>
       <c r="L20" s="63">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="M20" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N20" s="64"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="55"/>
@@ -10640,16 +10635,16 @@
       <c r="F21" s="56"/>
       <c r="G21" s="54"/>
       <c r="H21" s="58">
-        <v>17.45</v>
+        <v>101.1</v>
       </c>
       <c r="I21" s="57"/>
       <c r="J21" s="57"/>
       <c r="K21" s="68"/>
       <c r="L21" s="63">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M21" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N21" s="64"/>
@@ -10659,7 +10654,7 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
@@ -10667,23 +10662,23 @@
       <c r="F22" s="56"/>
       <c r="G22" s="54"/>
       <c r="H22" s="58">
-        <v>7.18</v>
+        <v>106.31</v>
       </c>
       <c r="I22" s="57"/>
       <c r="J22" s="57"/>
       <c r="K22" s="68"/>
       <c r="L22" s="63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M22" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N22" s="64"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>12</v>
@@ -10694,26 +10689,26 @@
       <c r="F23" s="56"/>
       <c r="G23" s="54"/>
       <c r="H23" s="58">
-        <v>106.31</v>
+        <v>105.92</v>
       </c>
       <c r="I23" s="57"/>
       <c r="J23" s="57"/>
       <c r="K23" s="68"/>
       <c r="L23" s="63">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M23" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N23" s="64"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="54"/>
       <c r="D24" s="55"/>
@@ -10721,16 +10716,16 @@
       <c r="F24" s="56"/>
       <c r="G24" s="54"/>
       <c r="H24" s="58">
-        <v>11.3</v>
+        <v>122.3</v>
       </c>
       <c r="I24" s="57"/>
       <c r="J24" s="57"/>
       <c r="K24" s="68"/>
       <c r="L24" s="63">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M24" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N24" s="64"/>
@@ -10740,7 +10735,7 @@
         <v>11</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C25" s="54"/>
       <c r="D25" s="55"/>
@@ -10748,26 +10743,26 @@
       <c r="F25" s="56"/>
       <c r="G25" s="54"/>
       <c r="H25" s="58">
-        <v>3.6</v>
+        <v>11.3</v>
       </c>
       <c r="I25" s="57"/>
       <c r="J25" s="57"/>
       <c r="K25" s="68"/>
       <c r="L25" s="63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M25" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N25" s="64"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B26">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C26" s="54"/>
       <c r="D26" s="55"/>
@@ -10775,26 +10770,26 @@
       <c r="F26" s="56"/>
       <c r="G26" s="54"/>
       <c r="H26" s="58">
-        <v>14.8</v>
+        <v>113.69</v>
       </c>
       <c r="I26" s="57"/>
       <c r="J26" s="57"/>
       <c r="K26" s="68"/>
       <c r="L26" s="63">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M26" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N26" s="64"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C27" s="54"/>
       <c r="D27" s="55"/>
@@ -10802,26 +10797,26 @@
       <c r="F27" s="56"/>
       <c r="G27" s="54"/>
       <c r="H27" s="58">
-        <v>24</v>
+        <v>224.07</v>
       </c>
       <c r="I27" s="57"/>
       <c r="J27" s="57"/>
       <c r="K27" s="68"/>
       <c r="L27" s="63">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M27" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N27" s="64"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="55"/>
@@ -10829,16 +10824,16 @@
       <c r="F28" s="56"/>
       <c r="G28" s="54"/>
       <c r="H28" s="58">
-        <v>4.9400000000000004</v>
+        <v>42.1</v>
       </c>
       <c r="I28" s="57"/>
       <c r="J28" s="57"/>
       <c r="K28" s="68"/>
       <c r="L28" s="63">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M28" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N28" s="64"/>
@@ -10848,7 +10843,7 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="55"/>
@@ -10856,26 +10851,26 @@
       <c r="F29" s="56"/>
       <c r="G29" s="54"/>
       <c r="H29" s="58">
-        <v>14.6</v>
+        <v>3.6</v>
       </c>
       <c r="I29" s="57"/>
       <c r="J29" s="57"/>
       <c r="K29" s="68"/>
       <c r="L29" s="63">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M29" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N29" s="64"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
         <v>19</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="55"/>
@@ -10883,26 +10878,26 @@
       <c r="F30" s="56"/>
       <c r="G30" s="54"/>
       <c r="H30" s="58">
-        <v>113.25</v>
+        <v>27</v>
       </c>
       <c r="I30" s="57"/>
       <c r="J30" s="57"/>
       <c r="K30" s="68"/>
       <c r="L30" s="63">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="M30" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N30" s="64"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31">
         <v>19</v>
-      </c>
-      <c r="B31">
-        <v>3</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="55"/>
@@ -10910,26 +10905,26 @@
       <c r="F31" s="56"/>
       <c r="G31" s="54"/>
       <c r="H31" s="58">
-        <v>72</v>
+        <v>14.8</v>
       </c>
       <c r="I31" s="57"/>
       <c r="J31" s="57"/>
       <c r="K31" s="68"/>
       <c r="L31" s="63">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M31" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N31" s="64"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="55"/>
@@ -10937,16 +10932,16 @@
       <c r="F32" s="56"/>
       <c r="G32" s="54"/>
       <c r="H32" s="58">
-        <v>26.78</v>
+        <v>14.4</v>
       </c>
       <c r="I32" s="57"/>
       <c r="J32" s="57"/>
       <c r="K32" s="68"/>
       <c r="L32" s="63">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="M32" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N32" s="64"/>
@@ -10956,7 +10951,7 @@
         <v>19</v>
       </c>
       <c r="B33">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C33" s="54"/>
       <c r="D33" s="55"/>
@@ -10964,26 +10959,26 @@
       <c r="F33" s="56"/>
       <c r="G33" s="54"/>
       <c r="H33" s="58">
-        <v>57.25</v>
+        <v>40.75</v>
       </c>
       <c r="I33" s="57"/>
       <c r="J33" s="57"/>
       <c r="K33" s="68"/>
       <c r="L33" s="63">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M33" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N33" s="64"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C34" s="54"/>
       <c r="D34" s="55"/>
@@ -10991,16 +10986,16 @@
       <c r="F34" s="56"/>
       <c r="G34" s="54"/>
       <c r="H34" s="58">
-        <v>110</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="I34" s="57"/>
       <c r="J34" s="57"/>
       <c r="K34" s="68"/>
       <c r="L34" s="63">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="M34" s="63" t="b">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N34" s="64"/>
@@ -11010,7 +11005,7 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C35" s="54"/>
       <c r="D35" s="55"/>
@@ -11018,26 +11013,26 @@
       <c r="F35" s="56"/>
       <c r="G35" s="54"/>
       <c r="H35" s="58">
-        <v>101.1</v>
+        <v>54.76</v>
       </c>
       <c r="I35" s="57"/>
       <c r="J35" s="57"/>
       <c r="K35" s="68"/>
       <c r="L35" s="63">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M35" s="63" t="b">
-        <f t="shared" ref="M35:M54" si="1" xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N35" s="64"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C36" s="54"/>
       <c r="D36" s="55"/>
@@ -11045,16 +11040,16 @@
       <c r="F36" s="56"/>
       <c r="G36" s="54"/>
       <c r="H36" s="58">
-        <v>105.92</v>
+        <v>24</v>
       </c>
       <c r="I36" s="57"/>
       <c r="J36" s="57"/>
       <c r="K36" s="68"/>
       <c r="L36" s="63">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M36" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N36" s="64"/>
@@ -11064,7 +11059,7 @@
         <v>19</v>
       </c>
       <c r="B37">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C37" s="54"/>
       <c r="D37" s="55"/>
@@ -11072,26 +11067,26 @@
       <c r="F37" s="56"/>
       <c r="G37" s="54"/>
       <c r="H37" s="58">
-        <v>122.3</v>
+        <v>41.59</v>
       </c>
       <c r="I37" s="57"/>
       <c r="J37" s="57"/>
       <c r="K37" s="68"/>
       <c r="L37" s="63">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M37" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N37" s="64"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C38" s="54"/>
       <c r="D38" s="55"/>
@@ -11099,16 +11094,16 @@
       <c r="F38" s="56"/>
       <c r="G38" s="54"/>
       <c r="H38" s="58">
-        <v>113.69</v>
+        <v>14.4</v>
       </c>
       <c r="I38" s="57"/>
       <c r="J38" s="57"/>
       <c r="K38" s="68"/>
       <c r="L38" s="63">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M38" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N38" s="64"/>
@@ -11118,7 +11113,7 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="55"/>
@@ -11126,26 +11121,26 @@
       <c r="F39" s="56"/>
       <c r="G39" s="54"/>
       <c r="H39" s="58">
-        <v>224.07</v>
+        <v>42.04</v>
       </c>
       <c r="I39" s="57"/>
       <c r="J39" s="57"/>
       <c r="K39" s="68"/>
       <c r="L39" s="63">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M39" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N39" s="64"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C40" s="54"/>
       <c r="D40" s="55"/>
@@ -11153,26 +11148,26 @@
       <c r="F40" s="56"/>
       <c r="G40" s="54"/>
       <c r="H40" s="58">
-        <v>40.75</v>
+        <v>14.8</v>
       </c>
       <c r="I40" s="57"/>
       <c r="J40" s="57"/>
       <c r="K40" s="68"/>
       <c r="L40" s="63">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M40" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N40" s="64"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="55"/>
@@ -11180,26 +11175,26 @@
       <c r="F41" s="56"/>
       <c r="G41" s="54"/>
       <c r="H41" s="58">
-        <v>54.76</v>
+        <v>10.1</v>
       </c>
       <c r="I41" s="57"/>
       <c r="J41" s="57"/>
       <c r="K41" s="68"/>
       <c r="L41" s="63">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="M41" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N41" s="64"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C42" s="54"/>
       <c r="D42" s="55"/>
@@ -11207,16 +11202,16 @@
       <c r="F42" s="56"/>
       <c r="G42" s="54"/>
       <c r="H42" s="58">
-        <v>41.59</v>
+        <v>60.5</v>
       </c>
       <c r="I42" s="57"/>
       <c r="J42" s="57"/>
       <c r="K42" s="68"/>
       <c r="L42" s="63">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M42" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N42" s="64"/>
@@ -11226,7 +11221,7 @@
         <v>19</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="54"/>
       <c r="D43" s="55"/>
@@ -11234,26 +11229,26 @@
       <c r="F43" s="56"/>
       <c r="G43" s="54"/>
       <c r="H43" s="58">
-        <v>42.04</v>
+        <v>86.5</v>
       </c>
       <c r="I43" s="57"/>
       <c r="J43" s="57"/>
       <c r="K43" s="68"/>
       <c r="L43" s="63">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M43" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N43" s="64"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" s="54"/>
       <c r="D44" s="55"/>
@@ -11261,16 +11256,16 @@
       <c r="F44" s="56"/>
       <c r="G44" s="54"/>
       <c r="H44" s="58">
-        <v>86.5</v>
+        <v>80</v>
       </c>
       <c r="I44" s="57"/>
       <c r="J44" s="57"/>
       <c r="K44" s="68"/>
       <c r="L44" s="63">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M44" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N44" s="64"/>
@@ -11297,14 +11292,14 @@
         <v>45</v>
       </c>
       <c r="M45" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N45" s="64"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B46">
         <v>27</v>
@@ -11315,16 +11310,16 @@
       <c r="F46" s="56"/>
       <c r="G46" s="54"/>
       <c r="H46" s="58">
-        <v>104.25</v>
+        <v>75</v>
       </c>
       <c r="I46" s="57"/>
       <c r="J46" s="57"/>
       <c r="K46" s="68"/>
       <c r="L46" s="63">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="M46" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N46" s="64"/>
@@ -11334,7 +11329,7 @@
         <v>19</v>
       </c>
       <c r="B47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C47" s="54"/>
       <c r="D47" s="55"/>
@@ -11342,26 +11337,26 @@
       <c r="F47" s="56"/>
       <c r="G47" s="54"/>
       <c r="H47" s="58">
-        <v>72.5</v>
+        <v>104.25</v>
       </c>
       <c r="I47" s="57"/>
       <c r="J47" s="57"/>
       <c r="K47" s="68"/>
       <c r="L47" s="63">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M47" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N47" s="64"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" s="54"/>
       <c r="D48" s="55"/>
@@ -11369,16 +11364,16 @@
       <c r="F48" s="56"/>
       <c r="G48" s="54"/>
       <c r="H48" s="58">
-        <v>100.1</v>
+        <v>46</v>
       </c>
       <c r="I48" s="57"/>
       <c r="J48" s="57"/>
       <c r="K48" s="68"/>
       <c r="L48" s="63">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="M48" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N48" s="64"/>
@@ -11388,7 +11383,7 @@
         <v>19</v>
       </c>
       <c r="B49">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C49" s="54"/>
       <c r="D49" s="55"/>
@@ -11396,26 +11391,26 @@
       <c r="F49" s="56"/>
       <c r="G49" s="54"/>
       <c r="H49" s="58">
-        <v>52</v>
+        <v>72.5</v>
       </c>
       <c r="I49" s="57"/>
       <c r="J49" s="57"/>
       <c r="K49" s="68"/>
       <c r="L49" s="63">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M49" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N49" s="64"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
@@ -11423,26 +11418,26 @@
       <c r="F50" s="56"/>
       <c r="G50" s="54"/>
       <c r="H50" s="58">
-        <v>124.92</v>
+        <v>100.1</v>
       </c>
       <c r="I50" s="57"/>
       <c r="J50" s="57"/>
       <c r="K50" s="68"/>
       <c r="L50" s="63">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M50" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N50" s="64"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C51" s="54"/>
       <c r="D51" s="55"/>
@@ -11450,26 +11445,26 @@
       <c r="F51" s="56"/>
       <c r="G51" s="54"/>
       <c r="H51" s="58">
-        <v>19.75</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="I51" s="57"/>
       <c r="J51" s="57"/>
       <c r="K51" s="68"/>
       <c r="L51" s="63">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="M51" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N51" s="64"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C52" s="54"/>
       <c r="D52" s="55"/>
@@ -11477,26 +11472,26 @@
       <c r="F52" s="56"/>
       <c r="G52" s="54"/>
       <c r="H52" s="58">
-        <v>42.1</v>
+        <v>14.6</v>
       </c>
       <c r="I52" s="57"/>
       <c r="J52" s="57"/>
       <c r="K52" s="68"/>
       <c r="L52" s="63">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="M52" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N52" s="64"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
         <v>32</v>
-      </c>
-      <c r="B53">
-        <v>20</v>
       </c>
       <c r="C53" s="54"/>
       <c r="D53" s="55"/>
@@ -11504,26 +11499,26 @@
       <c r="F53" s="56"/>
       <c r="G53" s="54"/>
       <c r="H53" s="58">
-        <v>9.4499999999999993</v>
+        <v>22.75</v>
       </c>
       <c r="I53" s="57"/>
       <c r="J53" s="57"/>
       <c r="K53" s="68"/>
       <c r="L53" s="63">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="M53" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N53" s="64"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>19</v>
+      </c>
+      <c r="B54">
         <v>32</v>
-      </c>
-      <c r="B54">
-        <v>23</v>
       </c>
       <c r="C54" s="54"/>
       <c r="D54" s="55"/>
@@ -11531,16 +11526,16 @@
       <c r="F54" s="56"/>
       <c r="G54" s="54"/>
       <c r="H54" s="58">
-        <v>14.8</v>
+        <v>52</v>
       </c>
       <c r="I54" s="57"/>
       <c r="J54" s="57"/>
       <c r="K54" s="68"/>
       <c r="L54" s="63">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="M54" s="63" t="b">
-        <f t="shared" si="1"/>
+        <f xml:space="preserve"> IF(AND(TRUE), TRUE, FALSE)</f>
         <v>1</v>
       </c>
       <c r="N54" s="64"/>
@@ -11581,11 +11576,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:AC2"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11784,10 +11779,10 @@
       <c r="K3" s="58"/>
       <c r="L3" s="60"/>
       <c r="M3" s="61">
-        <v>4492.16162109375</v>
+        <v>2298.199951171875</v>
       </c>
       <c r="N3" s="61">
-        <v>7922.359375</v>
+        <v>8657.6435546875</v>
       </c>
       <c r="O3" s="59"/>
       <c r="P3" s="62"/>
@@ -11832,10 +11827,10 @@
       <c r="K4" s="83"/>
       <c r="L4" s="85"/>
       <c r="M4" s="86">
-        <v>9095.0244140625</v>
+        <v>8163.44384765625</v>
       </c>
       <c r="N4" s="86">
-        <v>2105.649169921875</v>
+        <v>915.14483642578125</v>
       </c>
       <c r="O4" s="87"/>
       <c r="P4" s="88"/>
@@ -11876,10 +11871,10 @@
       <c r="K5" s="83"/>
       <c r="L5" s="85"/>
       <c r="M5" s="86">
-        <v>1315.2054443359375</v>
+        <v>826.2059326171875</v>
       </c>
       <c r="N5" s="86">
-        <v>5356.15087890625</v>
+        <v>7019.4443359375</v>
       </c>
       <c r="O5" s="87"/>
       <c r="P5" s="88"/>
@@ -11920,10 +11915,10 @@
       <c r="K6" s="83"/>
       <c r="L6" s="85"/>
       <c r="M6" s="86">
-        <v>5119.31298828125</v>
+        <v>6932.0068359375</v>
       </c>
       <c r="N6" s="86">
-        <v>1597.0604248046875</v>
+        <v>502.45870971679687</v>
       </c>
       <c r="O6" s="87"/>
       <c r="P6" s="88"/>
@@ -11964,10 +11959,10 @@
       <c r="K7" s="83"/>
       <c r="L7" s="85"/>
       <c r="M7" s="86">
-        <v>3584.141357421875</v>
+        <v>3582.45751953125</v>
       </c>
       <c r="N7" s="86">
-        <v>5148.94287109375</v>
+        <v>4272.44482421875</v>
       </c>
       <c r="O7" s="87"/>
       <c r="P7" s="88"/>
@@ -12008,10 +12003,10 @@
       <c r="K8" s="83"/>
       <c r="L8" s="85"/>
       <c r="M8" s="86">
-        <v>7168.8896484375</v>
+        <v>8198.759765625</v>
       </c>
       <c r="N8" s="86">
-        <v>5235.2080078125</v>
+        <v>8330.921875</v>
       </c>
       <c r="O8" s="87"/>
       <c r="P8" s="88"/>
@@ -12052,10 +12047,10 @@
       <c r="K9" s="83"/>
       <c r="L9" s="85"/>
       <c r="M9" s="86">
-        <v>2019.48779296875</v>
+        <v>1758.1566162109375</v>
       </c>
       <c r="N9" s="86">
-        <v>6387.171875</v>
+        <v>1771.762939453125</v>
       </c>
       <c r="O9" s="87"/>
       <c r="P9" s="88"/>
@@ -12083,7 +12078,7 @@
         <v>181</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C10" s="80"/>
       <c r="D10" s="81">
@@ -12100,10 +12095,10 @@
       <c r="K10" s="83"/>
       <c r="L10" s="85"/>
       <c r="M10" s="86">
-        <v>214.88922119140625</v>
+        <v>832.4215087890625</v>
       </c>
       <c r="N10" s="86">
-        <v>6369.90625</v>
+        <v>2510.604248046875</v>
       </c>
       <c r="O10" s="87"/>
       <c r="P10" s="88"/>
@@ -12144,10 +12139,10 @@
       <c r="K11" s="83"/>
       <c r="L11" s="85"/>
       <c r="M11" s="86">
-        <v>7108.9873046875</v>
+        <v>5515.26171875</v>
       </c>
       <c r="N11" s="86">
-        <v>8241.107421875</v>
+        <v>205.82850646972656</v>
       </c>
       <c r="O11" s="87"/>
       <c r="P11" s="88"/>
@@ -12188,10 +12183,10 @@
       <c r="K12" s="83"/>
       <c r="L12" s="85"/>
       <c r="M12" s="86">
-        <v>2480.128173828125</v>
+        <v>4802.07666015625</v>
       </c>
       <c r="N12" s="86">
-        <v>8408.1015625</v>
+        <v>9174.7744140625</v>
       </c>
       <c r="O12" s="87"/>
       <c r="P12" s="88"/>
@@ -12219,7 +12214,7 @@
         <v>184</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="80"/>
       <c r="D13" s="81">
@@ -12236,10 +12231,10 @@
       <c r="K13" s="83"/>
       <c r="L13" s="85"/>
       <c r="M13" s="86">
-        <v>6758.767578125</v>
+        <v>7821.068359375</v>
       </c>
       <c r="N13" s="86">
-        <v>3590.492431640625</v>
+        <v>4305.49267578125</v>
       </c>
       <c r="O13" s="87"/>
       <c r="P13" s="88"/>
@@ -12280,10 +12275,10 @@
       <c r="K14" s="83"/>
       <c r="L14" s="85"/>
       <c r="M14" s="86">
-        <v>7359.3623046875</v>
+        <v>8760.3212890625</v>
       </c>
       <c r="N14" s="86">
-        <v>6129.74609375</v>
+        <v>7382.80419921875</v>
       </c>
       <c r="O14" s="87"/>
       <c r="P14" s="88"/>
@@ -12324,10 +12319,10 @@
       <c r="K15" s="83"/>
       <c r="L15" s="85"/>
       <c r="M15" s="86">
-        <v>4927.587890625</v>
+        <v>2518.787353515625</v>
       </c>
       <c r="N15" s="86">
-        <v>3727.02880859375</v>
+        <v>862.41650390625</v>
       </c>
       <c r="O15" s="87"/>
       <c r="P15" s="88"/>
@@ -12368,10 +12363,10 @@
       <c r="K16" s="83"/>
       <c r="L16" s="85"/>
       <c r="M16" s="86">
-        <v>9694.6962890625</v>
+        <v>9709.7822265625</v>
       </c>
       <c r="N16" s="86">
-        <v>3544.0576171875</v>
+        <v>3347.17529296875</v>
       </c>
       <c r="O16" s="87"/>
       <c r="P16" s="88"/>
@@ -12412,7 +12407,7 @@
       <c r="K17" s="83"/>
       <c r="L17" s="85"/>
       <c r="M17" s="86">
-        <v>4308.57177734375</v>
+        <v>5942.9912109375</v>
       </c>
       <c r="N17" s="86">
         <v>9815.580078125</v>
@@ -12456,10 +12451,10 @@
       <c r="K18" s="83"/>
       <c r="L18" s="85"/>
       <c r="M18" s="86">
-        <v>6410.24267578125</v>
+        <v>4152.3212890625</v>
       </c>
       <c r="N18" s="86">
-        <v>9012.2646484375</v>
+        <v>9815.580078125</v>
       </c>
       <c r="O18" s="87"/>
       <c r="P18" s="88"/>
@@ -12503,7 +12498,7 @@
         <v>136.25497436523437</v>
       </c>
       <c r="N19" s="86">
-        <v>828.8597412109375</v>
+        <v>6449.87060546875</v>
       </c>
       <c r="O19" s="87"/>
       <c r="P19" s="88"/>
@@ -12544,10 +12539,10 @@
       <c r="K20" s="83"/>
       <c r="L20" s="85"/>
       <c r="M20" s="86">
-        <v>7104.8134765625</v>
+        <v>9862.744140625</v>
       </c>
       <c r="N20" s="86">
-        <v>183.42010498046875</v>
+        <v>5236.45458984375</v>
       </c>
       <c r="O20" s="87"/>
       <c r="P20" s="88"/>
@@ -12588,10 +12583,10 @@
       <c r="K21" s="83"/>
       <c r="L21" s="85"/>
       <c r="M21" s="86">
-        <v>4615.54541015625</v>
+        <v>4405.14111328125</v>
       </c>
       <c r="N21" s="86">
-        <v>5862.37890625</v>
+        <v>5634.44287109375</v>
       </c>
       <c r="O21" s="87"/>
       <c r="P21" s="88"/>
@@ -12632,10 +12627,10 @@
       <c r="K22" s="83"/>
       <c r="L22" s="85"/>
       <c r="M22" s="86">
-        <v>3032.895751953125</v>
+        <v>636.219970703125</v>
       </c>
       <c r="N22" s="86">
-        <v>3083.085693359375</v>
+        <v>4526.392578125</v>
       </c>
       <c r="O22" s="87"/>
       <c r="P22" s="88"/>
@@ -12676,10 +12671,10 @@
       <c r="K23" s="83"/>
       <c r="L23" s="85"/>
       <c r="M23" s="86">
-        <v>3880.136962890625</v>
+        <v>7185.9091796875</v>
       </c>
       <c r="N23" s="86">
-        <v>2186.533935546875</v>
+        <v>9357.44140625</v>
       </c>
       <c r="O23" s="87"/>
       <c r="P23" s="88"/>
@@ -12720,10 +12715,10 @@
       <c r="K24" s="83"/>
       <c r="L24" s="85"/>
       <c r="M24" s="86">
-        <v>6462.306640625</v>
+        <v>9166.71875</v>
       </c>
       <c r="N24" s="86">
-        <v>4450.75341796875</v>
+        <v>4725.259765625</v>
       </c>
       <c r="O24" s="87"/>
       <c r="P24" s="88"/>
@@ -12764,10 +12759,10 @@
       <c r="K25" s="83"/>
       <c r="L25" s="85"/>
       <c r="M25" s="86">
-        <v>2478.2412109375</v>
+        <v>1544.3487548828125</v>
       </c>
       <c r="N25" s="86">
-        <v>4304.79150390625</v>
+        <v>7838.4638671875</v>
       </c>
       <c r="O25" s="87"/>
       <c r="P25" s="88"/>
@@ -12808,10 +12803,10 @@
       <c r="K26" s="83"/>
       <c r="L26" s="85"/>
       <c r="M26" s="86">
-        <v>213.75090026855469</v>
+        <v>3416.548583984375</v>
       </c>
       <c r="N26" s="86">
-        <v>3507.6767578125</v>
+        <v>183.42010498046875</v>
       </c>
       <c r="O26" s="87"/>
       <c r="P26" s="88"/>
@@ -12852,10 +12847,10 @@
       <c r="K27" s="83"/>
       <c r="L27" s="85"/>
       <c r="M27" s="86">
-        <v>3396.288330078125</v>
+        <v>5680.93017578125</v>
       </c>
       <c r="N27" s="86">
-        <v>8578.076171875</v>
+        <v>7272.24755859375</v>
       </c>
       <c r="O27" s="87"/>
       <c r="P27" s="88"/>
@@ -12896,10 +12891,10 @@
       <c r="K28" s="83"/>
       <c r="L28" s="85"/>
       <c r="M28" s="86">
-        <v>3367.776611328125</v>
+        <v>5376.01611328125</v>
       </c>
       <c r="N28" s="86">
-        <v>7028.9853515625</v>
+        <v>2314.808349609375</v>
       </c>
       <c r="O28" s="87"/>
       <c r="P28" s="88"/>
@@ -12940,10 +12935,10 @@
       <c r="K29" s="83"/>
       <c r="L29" s="85"/>
       <c r="M29" s="86">
-        <v>5389.01904296875</v>
+        <v>4306.28857421875</v>
       </c>
       <c r="N29" s="86">
-        <v>6988.7607421875</v>
+        <v>305.8834228515625</v>
       </c>
       <c r="O29" s="87"/>
       <c r="P29" s="88"/>
@@ -12984,10 +12979,10 @@
       <c r="K30" s="83"/>
       <c r="L30" s="85"/>
       <c r="M30" s="86">
-        <v>1702.7315673828125</v>
+        <v>733.63623046875</v>
       </c>
       <c r="N30" s="86">
-        <v>7432.2294921875</v>
+        <v>3447.250244140625</v>
       </c>
       <c r="O30" s="87"/>
       <c r="P30" s="88"/>
@@ -13028,10 +13023,10 @@
       <c r="K31" s="83"/>
       <c r="L31" s="85"/>
       <c r="M31" s="86">
-        <v>5503.755859375</v>
+        <v>3067.828125</v>
       </c>
       <c r="N31" s="86">
-        <v>9594.34375</v>
+        <v>9568.6357421875</v>
       </c>
       <c r="O31" s="87"/>
       <c r="P31" s="88"/>
@@ -13072,10 +13067,10 @@
       <c r="K32" s="83"/>
       <c r="L32" s="85"/>
       <c r="M32" s="86">
-        <v>8231.7353515625</v>
+        <v>9064.1259765625</v>
       </c>
       <c r="N32" s="86">
-        <v>987.0584716796875</v>
+        <v>1953.4522705078125</v>
       </c>
       <c r="O32" s="87"/>
       <c r="P32" s="88"/>
@@ -13116,10 +13111,10 @@
       <c r="K33" s="83"/>
       <c r="L33" s="85"/>
       <c r="M33" s="86">
-        <v>9862.744140625</v>
+        <v>9587.5966796875</v>
       </c>
       <c r="N33" s="86">
-        <v>5195.01220703125</v>
+        <v>6910.4169921875</v>
       </c>
       <c r="O33" s="87"/>
       <c r="P33" s="88"/>
@@ -13160,10 +13155,10 @@
       <c r="K34" s="83"/>
       <c r="L34" s="85"/>
       <c r="M34" s="86">
-        <v>2090.6279296875</v>
+        <v>507.574951171875</v>
       </c>
       <c r="N34" s="86">
-        <v>3396.32373046875</v>
+        <v>5660.830078125</v>
       </c>
       <c r="O34" s="87"/>
       <c r="P34" s="88"/>
@@ -13690,7 +13685,7 @@
       </c>
       <c r="U2" s="40">
         <f t="shared" ref="U2:U45" ca="1" si="0">COUNTIF(INDIRECT(DynamicFilterSourceColumnRange), "&gt;= " &amp; T2) - COUNTIF(INDIRECT(DynamicFilterSourceColumnRange), "&gt;=" &amp; T3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="s">
         <v>125</v>
@@ -13773,7 +13768,7 @@
       </c>
       <c r="U3" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="s">
         <v>126</v>
@@ -13855,7 +13850,7 @@
       </c>
       <c r="U4" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="12" t="s">
         <v>127</v>
@@ -13937,7 +13932,7 @@
       </c>
       <c r="U5" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -14165,7 +14160,7 @@
       </c>
       <c r="U8" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
@@ -14241,7 +14236,7 @@
       </c>
       <c r="U9" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -14317,7 +14312,7 @@
       </c>
       <c r="U10" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -14393,7 +14388,7 @@
       </c>
       <c r="U11" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -14469,7 +14464,7 @@
       </c>
       <c r="U12" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -14621,7 +14616,7 @@
       </c>
       <c r="U14" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -14849,7 +14844,7 @@
       </c>
       <c r="U17" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -15077,7 +15072,7 @@
       </c>
       <c r="U20" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -15229,7 +15224,7 @@
       </c>
       <c r="U22" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -15381,7 +15376,7 @@
       </c>
       <c r="U24" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -15457,7 +15452,7 @@
       </c>
       <c r="U25" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -15533,7 +15528,7 @@
       </c>
       <c r="U26" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -15607,7 +15602,7 @@
       </c>
       <c r="U27" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
@@ -15681,7 +15676,7 @@
       </c>
       <c r="U28" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
@@ -15761,7 +15756,7 @@
       </c>
       <c r="U29" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
@@ -16063,7 +16058,7 @@
       </c>
       <c r="U33" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -16359,7 +16354,7 @@
       </c>
       <c r="U37" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -16655,7 +16650,7 @@
       </c>
       <c r="U41" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -16729,7 +16724,7 @@
       </c>
       <c r="U42" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -16810,7 +16805,7 @@
       </c>
       <c r="U43" s="42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -16891,7 +16886,7 @@
       </c>
       <c r="U44" s="40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -16972,7 +16967,7 @@
       </c>
       <c r="U45" s="44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -17468,7 +17463,7 @@
         <v>172</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -17529,7 +17524,7 @@
         <v>238</v>
       </c>
       <c r="K7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
